--- a/Coloring Rows Based on Value/RowColoring.xlsx
+++ b/Coloring Rows Based on Value/RowColoring.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF53304-36A3-49FD-A4D5-F69915E8603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A496726-1C45-4F94-ADBC-D4A9F08137A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27435" windowHeight="14805" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,14 +561,12 @@
         <v>45016</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B31" si="1">B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" s="4">
         <v>9807</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D31" si="2">D2+1</f>
         <v>101</v>
       </c>
       <c r="E3" s="5">
@@ -587,14 +585,12 @@
         <v>45016</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>9807</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="E4" s="5">
@@ -613,14 +609,12 @@
         <v>45016</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C5" s="4">
         <v>5112</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="E5" s="5">
@@ -639,14 +633,12 @@
         <v>45016</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>5112</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="E6" s="5">
@@ -665,14 +657,12 @@
         <v>45016</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C7" s="4">
         <v>5112</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="E7" s="5">
@@ -691,14 +681,12 @@
         <v>45016</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C8" s="4">
         <v>5112</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="E8" s="5">
@@ -717,14 +705,12 @@
         <v>45016</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C9" s="4">
         <v>4218</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="E9" s="5">
@@ -743,14 +729,12 @@
         <v>45016</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C10" s="4">
         <v>4218</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="E10" s="5">
@@ -769,14 +753,12 @@
         <v>45016</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>4218</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="E11" s="5">
@@ -795,14 +777,12 @@
         <v>45016</v>
       </c>
       <c r="B12" s="4">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C12" s="4">
         <v>4218</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="E12" s="5">
@@ -821,14 +801,12 @@
         <v>45016</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>4218</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="E13" s="5">
@@ -847,14 +825,12 @@
         <v>45016</v>
       </c>
       <c r="B14" s="4">
-        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>12125</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="E14" s="5">
@@ -873,14 +849,12 @@
         <v>45016</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C15" s="4">
         <v>12125</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="E15" s="5">
@@ -899,14 +873,12 @@
         <v>45016</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>12125</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="E16" s="5">
@@ -925,14 +897,12 @@
         <v>45016</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C17" s="4">
         <v>9999</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="E17" s="5">
@@ -951,14 +921,12 @@
         <v>45016</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C18" s="4">
         <v>9999</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="E18" s="5">
@@ -977,14 +945,12 @@
         <v>45016</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C19" s="4">
         <v>9999</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="E19" s="5">
@@ -1003,14 +969,12 @@
         <v>45016</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="E20" s="5">
@@ -1029,14 +993,12 @@
         <v>45016</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="E21" s="5">
@@ -1055,14 +1017,12 @@
         <v>45016</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C22" s="4">
         <v>2525</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="E22" s="5">
@@ -1081,14 +1041,12 @@
         <v>45016</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="E23" s="5">
@@ -1107,14 +1065,12 @@
         <v>45016</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="E24" s="5">
@@ -1133,14 +1089,12 @@
         <v>45016</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C25" s="4">
         <v>1212</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="E25" s="5">
@@ -1159,14 +1113,12 @@
         <v>45016</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C26" s="4">
         <v>1212</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="E26" s="5">
@@ -1185,14 +1137,12 @@
         <v>45016</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="E27" s="5">
@@ -1211,14 +1161,12 @@
         <v>45016</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="E28" s="5">
@@ -1237,14 +1185,12 @@
         <v>45016</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="E29" s="5">
@@ -1263,14 +1209,12 @@
         <v>45016</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="E30" s="5">
@@ -1289,14 +1233,12 @@
         <v>45016</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="E31" s="5">
